--- a/G1ANT.Addon.Xls.Tests/Resources/XlsTestWorkbook.xlsx
+++ b/G1ANT.Addon.Xls.Tests/Resources/XlsTestWorkbook.xlsx
@@ -1,35 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
-  <x:workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <x:bookViews>
-    <x:workbookView xWindow="240" yWindow="2505" windowWidth="14805" windowHeight="8010"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
-  </x:sheets>
-  <x:calcPr calcId="162913" fullCalcOnLoad="1" forceFullCalc="1"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="2505" windowWidth="14805" windowHeight="8010"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="162913" forceFullCalc="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
-  <x:si>
-    <x:t>abcd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.07.2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.07.2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>21.07.2017</t>
+  </si>
+  <si>
+    <t>22.07.2017</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>AAZ</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,11 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -412,63 +434,2284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:G4"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C1" sqref="C1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.140625" style="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="1">
-        <x:v>1234</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D1" s="1">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="E1" s="2">
-        <x:v>1.6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="C2" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E2" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G2" s="1">
-        <x:v>12.345000000000001</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="F3" s="1" t="n">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="2">
-        <x:v>0.8</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup orientation="portrait" r:id="rId1"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ABC6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:731" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>150</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:731" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12.345000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:731" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:731" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:731" x14ac:dyDescent="0.25">
+      <c r="Z5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AZ5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AAL5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AAZ5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="ABC5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:731" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>11</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1">
+        <v>13</v>
+      </c>
+      <c r="N6" s="1">
+        <v>14</v>
+      </c>
+      <c r="O6" s="1">
+        <v>15</v>
+      </c>
+      <c r="P6" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>17</v>
+      </c>
+      <c r="R6" s="1">
+        <v>18</v>
+      </c>
+      <c r="S6" s="1">
+        <v>19</v>
+      </c>
+      <c r="T6" s="4">
+        <v>20</v>
+      </c>
+      <c r="U6" s="1">
+        <v>21</v>
+      </c>
+      <c r="V6" s="1">
+        <v>22</v>
+      </c>
+      <c r="W6" s="1">
+        <v>23</v>
+      </c>
+      <c r="X6" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>33</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>34</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>35</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>36</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>37</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>38</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>40</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>41</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>42</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>43</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>44</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>45</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>46</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>47</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>48</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>49</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>51</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>52</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>53</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>54</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>55</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>56</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>57</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>58</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>59</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>60</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>61</v>
+      </c>
+      <c r="BJ6" s="4">
+        <v>62</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>63</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>64</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>65</v>
+      </c>
+      <c r="BN6" s="4">
+        <v>66</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>67</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>68</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>69</v>
+      </c>
+      <c r="BR6" s="4">
+        <v>70</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>71</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>72</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>73</v>
+      </c>
+      <c r="BV6" s="4">
+        <v>74</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>75</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>76</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>77</v>
+      </c>
+      <c r="BZ6" s="4">
+        <v>78</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>79</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>80</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>81</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>82</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>83</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>84</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>85</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>86</v>
+      </c>
+      <c r="CI6" s="1">
+        <v>87</v>
+      </c>
+      <c r="CJ6" s="4">
+        <v>88</v>
+      </c>
+      <c r="CK6" s="1">
+        <v>89</v>
+      </c>
+      <c r="CL6" s="1">
+        <v>90</v>
+      </c>
+      <c r="CM6" s="1">
+        <v>91</v>
+      </c>
+      <c r="CN6" s="4">
+        <v>92</v>
+      </c>
+      <c r="CO6" s="1">
+        <v>93</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>94</v>
+      </c>
+      <c r="CQ6" s="1">
+        <v>95</v>
+      </c>
+      <c r="CR6" s="4">
+        <v>96</v>
+      </c>
+      <c r="CS6" s="1">
+        <v>97</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>98</v>
+      </c>
+      <c r="CU6" s="1">
+        <v>99</v>
+      </c>
+      <c r="CV6" s="4">
+        <v>100</v>
+      </c>
+      <c r="CW6" s="1">
+        <v>101</v>
+      </c>
+      <c r="CX6" s="1">
+        <v>102</v>
+      </c>
+      <c r="CY6" s="1">
+        <v>103</v>
+      </c>
+      <c r="CZ6" s="4">
+        <v>104</v>
+      </c>
+      <c r="DA6" s="1">
+        <v>105</v>
+      </c>
+      <c r="DB6" s="1">
+        <v>106</v>
+      </c>
+      <c r="DC6" s="1">
+        <v>107</v>
+      </c>
+      <c r="DD6" s="4">
+        <v>108</v>
+      </c>
+      <c r="DE6" s="1">
+        <v>109</v>
+      </c>
+      <c r="DF6" s="1">
+        <v>110</v>
+      </c>
+      <c r="DG6" s="1">
+        <v>111</v>
+      </c>
+      <c r="DH6" s="1">
+        <v>112</v>
+      </c>
+      <c r="DI6" s="1">
+        <v>113</v>
+      </c>
+      <c r="DJ6" s="1">
+        <v>114</v>
+      </c>
+      <c r="DK6" s="4">
+        <v>115</v>
+      </c>
+      <c r="DL6" s="1">
+        <v>116</v>
+      </c>
+      <c r="DM6" s="1">
+        <v>117</v>
+      </c>
+      <c r="DN6" s="1">
+        <v>118</v>
+      </c>
+      <c r="DO6" s="4">
+        <v>119</v>
+      </c>
+      <c r="DP6" s="1">
+        <v>120</v>
+      </c>
+      <c r="DQ6" s="1">
+        <v>121</v>
+      </c>
+      <c r="DR6" s="1">
+        <v>122</v>
+      </c>
+      <c r="DS6" s="4">
+        <v>123</v>
+      </c>
+      <c r="DT6" s="1">
+        <v>124</v>
+      </c>
+      <c r="DU6" s="1">
+        <v>125</v>
+      </c>
+      <c r="DV6" s="1">
+        <v>126</v>
+      </c>
+      <c r="DW6" s="4">
+        <v>127</v>
+      </c>
+      <c r="DX6" s="1">
+        <v>128</v>
+      </c>
+      <c r="DY6" s="1">
+        <v>129</v>
+      </c>
+      <c r="DZ6" s="1">
+        <v>130</v>
+      </c>
+      <c r="EA6" s="4">
+        <v>131</v>
+      </c>
+      <c r="EB6" s="1">
+        <v>132</v>
+      </c>
+      <c r="EC6" s="1">
+        <v>133</v>
+      </c>
+      <c r="ED6" s="1">
+        <v>134</v>
+      </c>
+      <c r="EE6" s="4">
+        <v>135</v>
+      </c>
+      <c r="EF6" s="1">
+        <v>136</v>
+      </c>
+      <c r="EG6" s="1">
+        <v>137</v>
+      </c>
+      <c r="EH6" s="1">
+        <v>138</v>
+      </c>
+      <c r="EI6" s="1">
+        <v>139</v>
+      </c>
+      <c r="EJ6" s="1">
+        <v>140</v>
+      </c>
+      <c r="EK6" s="1">
+        <v>141</v>
+      </c>
+      <c r="EL6" s="4">
+        <v>142</v>
+      </c>
+      <c r="EM6" s="1">
+        <v>143</v>
+      </c>
+      <c r="EN6" s="1">
+        <v>144</v>
+      </c>
+      <c r="EO6" s="1">
+        <v>145</v>
+      </c>
+      <c r="EP6" s="4">
+        <v>146</v>
+      </c>
+      <c r="EQ6" s="1">
+        <v>147</v>
+      </c>
+      <c r="ER6" s="1">
+        <v>148</v>
+      </c>
+      <c r="ES6" s="1">
+        <v>149</v>
+      </c>
+      <c r="ET6" s="4">
+        <v>150</v>
+      </c>
+      <c r="EU6" s="1">
+        <v>151</v>
+      </c>
+      <c r="EV6" s="1">
+        <v>152</v>
+      </c>
+      <c r="EW6" s="1">
+        <v>153</v>
+      </c>
+      <c r="EX6" s="4">
+        <v>154</v>
+      </c>
+      <c r="EY6" s="1">
+        <v>155</v>
+      </c>
+      <c r="EZ6" s="1">
+        <v>156</v>
+      </c>
+      <c r="FA6" s="1">
+        <v>157</v>
+      </c>
+      <c r="FB6" s="4">
+        <v>158</v>
+      </c>
+      <c r="FC6" s="1">
+        <v>159</v>
+      </c>
+      <c r="FD6" s="1">
+        <v>160</v>
+      </c>
+      <c r="FE6" s="1">
+        <v>161</v>
+      </c>
+      <c r="FF6" s="4">
+        <v>162</v>
+      </c>
+      <c r="FG6" s="1">
+        <v>163</v>
+      </c>
+      <c r="FH6" s="1">
+        <v>164</v>
+      </c>
+      <c r="FI6" s="1">
+        <v>165</v>
+      </c>
+      <c r="FJ6" s="1">
+        <v>166</v>
+      </c>
+      <c r="FK6" s="1">
+        <v>167</v>
+      </c>
+      <c r="FL6" s="1">
+        <v>168</v>
+      </c>
+      <c r="FM6" s="1">
+        <v>169</v>
+      </c>
+      <c r="FN6" s="1">
+        <v>170</v>
+      </c>
+      <c r="FO6" s="1">
+        <v>171</v>
+      </c>
+      <c r="FP6" s="4">
+        <v>172</v>
+      </c>
+      <c r="FQ6" s="1">
+        <v>173</v>
+      </c>
+      <c r="FR6" s="1">
+        <v>174</v>
+      </c>
+      <c r="FS6" s="1">
+        <v>175</v>
+      </c>
+      <c r="FT6" s="4">
+        <v>176</v>
+      </c>
+      <c r="FU6" s="1">
+        <v>177</v>
+      </c>
+      <c r="FV6" s="1">
+        <v>178</v>
+      </c>
+      <c r="FW6" s="1">
+        <v>179</v>
+      </c>
+      <c r="FX6" s="4">
+        <v>180</v>
+      </c>
+      <c r="FY6" s="1">
+        <v>181</v>
+      </c>
+      <c r="FZ6" s="1">
+        <v>182</v>
+      </c>
+      <c r="GA6" s="1">
+        <v>183</v>
+      </c>
+      <c r="GB6" s="4">
+        <v>184</v>
+      </c>
+      <c r="GC6" s="1">
+        <v>185</v>
+      </c>
+      <c r="GD6" s="1">
+        <v>186</v>
+      </c>
+      <c r="GE6" s="1">
+        <v>187</v>
+      </c>
+      <c r="GF6" s="4">
+        <v>188</v>
+      </c>
+      <c r="GG6" s="1">
+        <v>189</v>
+      </c>
+      <c r="GH6" s="1">
+        <v>190</v>
+      </c>
+      <c r="GI6" s="1">
+        <v>191</v>
+      </c>
+      <c r="GJ6" s="4">
+        <v>192</v>
+      </c>
+      <c r="GK6" s="1">
+        <v>193</v>
+      </c>
+      <c r="GL6" s="1">
+        <v>194</v>
+      </c>
+      <c r="GM6" s="1">
+        <v>195</v>
+      </c>
+      <c r="GN6" s="1">
+        <v>196</v>
+      </c>
+      <c r="GO6" s="1">
+        <v>197</v>
+      </c>
+      <c r="GP6" s="1">
+        <v>198</v>
+      </c>
+      <c r="GQ6" s="4">
+        <v>199</v>
+      </c>
+      <c r="GR6" s="1">
+        <v>200</v>
+      </c>
+      <c r="GS6" s="1">
+        <v>201</v>
+      </c>
+      <c r="GT6" s="1">
+        <v>202</v>
+      </c>
+      <c r="GU6" s="4">
+        <v>203</v>
+      </c>
+      <c r="GV6" s="1">
+        <v>204</v>
+      </c>
+      <c r="GW6" s="1">
+        <v>205</v>
+      </c>
+      <c r="GX6" s="1">
+        <v>206</v>
+      </c>
+      <c r="GY6" s="4">
+        <v>207</v>
+      </c>
+      <c r="GZ6" s="1">
+        <v>208</v>
+      </c>
+      <c r="HA6" s="1">
+        <v>209</v>
+      </c>
+      <c r="HB6" s="1">
+        <v>210</v>
+      </c>
+      <c r="HC6" s="4">
+        <v>211</v>
+      </c>
+      <c r="HD6" s="1">
+        <v>212</v>
+      </c>
+      <c r="HE6" s="1">
+        <v>213</v>
+      </c>
+      <c r="HF6" s="1">
+        <v>214</v>
+      </c>
+      <c r="HG6" s="4">
+        <v>215</v>
+      </c>
+      <c r="HH6" s="1">
+        <v>216</v>
+      </c>
+      <c r="HI6" s="1">
+        <v>217</v>
+      </c>
+      <c r="HJ6" s="1">
+        <v>218</v>
+      </c>
+      <c r="HK6" s="4">
+        <v>219</v>
+      </c>
+      <c r="HL6" s="1">
+        <v>220</v>
+      </c>
+      <c r="HM6" s="1">
+        <v>221</v>
+      </c>
+      <c r="HN6" s="1">
+        <v>222</v>
+      </c>
+      <c r="HO6" s="1">
+        <v>223</v>
+      </c>
+      <c r="HP6" s="1">
+        <v>224</v>
+      </c>
+      <c r="HQ6" s="1">
+        <v>225</v>
+      </c>
+      <c r="HR6" s="4">
+        <v>226</v>
+      </c>
+      <c r="HS6" s="1">
+        <v>227</v>
+      </c>
+      <c r="HT6" s="1">
+        <v>228</v>
+      </c>
+      <c r="HU6" s="1">
+        <v>229</v>
+      </c>
+      <c r="HV6" s="4">
+        <v>230</v>
+      </c>
+      <c r="HW6" s="1">
+        <v>231</v>
+      </c>
+      <c r="HX6" s="1">
+        <v>232</v>
+      </c>
+      <c r="HY6" s="1">
+        <v>233</v>
+      </c>
+      <c r="HZ6" s="4">
+        <v>234</v>
+      </c>
+      <c r="IA6" s="1">
+        <v>235</v>
+      </c>
+      <c r="IB6" s="1">
+        <v>236</v>
+      </c>
+      <c r="IC6" s="1">
+        <v>237</v>
+      </c>
+      <c r="ID6" s="4">
+        <v>238</v>
+      </c>
+      <c r="IE6" s="1">
+        <v>239</v>
+      </c>
+      <c r="IF6" s="1">
+        <v>240</v>
+      </c>
+      <c r="IG6" s="1">
+        <v>241</v>
+      </c>
+      <c r="IH6" s="4">
+        <v>242</v>
+      </c>
+      <c r="II6" s="1">
+        <v>243</v>
+      </c>
+      <c r="IJ6" s="1">
+        <v>244</v>
+      </c>
+      <c r="IK6" s="1">
+        <v>245</v>
+      </c>
+      <c r="IL6" s="4">
+        <v>246</v>
+      </c>
+      <c r="IM6" s="1">
+        <v>247</v>
+      </c>
+      <c r="IN6" s="1">
+        <v>248</v>
+      </c>
+      <c r="IO6" s="1">
+        <v>249</v>
+      </c>
+      <c r="IP6" s="1">
+        <v>250</v>
+      </c>
+      <c r="IQ6" s="1">
+        <v>251</v>
+      </c>
+      <c r="IR6" s="1">
+        <v>252</v>
+      </c>
+      <c r="IS6" s="1">
+        <v>253</v>
+      </c>
+      <c r="IT6" s="1">
+        <v>254</v>
+      </c>
+      <c r="IU6" s="1">
+        <v>255</v>
+      </c>
+      <c r="IV6" s="4">
+        <v>256</v>
+      </c>
+      <c r="IW6" s="1">
+        <v>257</v>
+      </c>
+      <c r="IX6" s="1">
+        <v>258</v>
+      </c>
+      <c r="IY6" s="1">
+        <v>259</v>
+      </c>
+      <c r="IZ6" s="4">
+        <v>260</v>
+      </c>
+      <c r="JA6" s="1">
+        <v>261</v>
+      </c>
+      <c r="JB6" s="1">
+        <v>262</v>
+      </c>
+      <c r="JC6" s="1">
+        <v>263</v>
+      </c>
+      <c r="JD6" s="4">
+        <v>264</v>
+      </c>
+      <c r="JE6" s="1">
+        <v>265</v>
+      </c>
+      <c r="JF6" s="1">
+        <v>266</v>
+      </c>
+      <c r="JG6" s="1">
+        <v>267</v>
+      </c>
+      <c r="JH6" s="4">
+        <v>268</v>
+      </c>
+      <c r="JI6" s="1">
+        <v>269</v>
+      </c>
+      <c r="JJ6" s="1">
+        <v>270</v>
+      </c>
+      <c r="JK6" s="1">
+        <v>271</v>
+      </c>
+      <c r="JL6" s="4">
+        <v>272</v>
+      </c>
+      <c r="JM6" s="1">
+        <v>273</v>
+      </c>
+      <c r="JN6" s="1">
+        <v>274</v>
+      </c>
+      <c r="JO6" s="1">
+        <v>275</v>
+      </c>
+      <c r="JP6" s="4">
+        <v>276</v>
+      </c>
+      <c r="JQ6" s="1">
+        <v>277</v>
+      </c>
+      <c r="JR6" s="1">
+        <v>278</v>
+      </c>
+      <c r="JS6" s="1">
+        <v>279</v>
+      </c>
+      <c r="JT6" s="1">
+        <v>280</v>
+      </c>
+      <c r="JU6" s="1">
+        <v>281</v>
+      </c>
+      <c r="JV6" s="1">
+        <v>282</v>
+      </c>
+      <c r="JW6" s="4">
+        <v>283</v>
+      </c>
+      <c r="JX6" s="1">
+        <v>284</v>
+      </c>
+      <c r="JY6" s="1">
+        <v>285</v>
+      </c>
+      <c r="JZ6" s="1">
+        <v>286</v>
+      </c>
+      <c r="KA6" s="4">
+        <v>287</v>
+      </c>
+      <c r="KB6" s="1">
+        <v>288</v>
+      </c>
+      <c r="KC6" s="1">
+        <v>289</v>
+      </c>
+      <c r="KD6" s="1">
+        <v>290</v>
+      </c>
+      <c r="KE6" s="4">
+        <v>291</v>
+      </c>
+      <c r="KF6" s="1">
+        <v>292</v>
+      </c>
+      <c r="KG6" s="1">
+        <v>293</v>
+      </c>
+      <c r="KH6" s="1">
+        <v>294</v>
+      </c>
+      <c r="KI6" s="4">
+        <v>295</v>
+      </c>
+      <c r="KJ6" s="1">
+        <v>296</v>
+      </c>
+      <c r="KK6" s="1">
+        <v>297</v>
+      </c>
+      <c r="KL6" s="1">
+        <v>298</v>
+      </c>
+      <c r="KM6" s="4">
+        <v>299</v>
+      </c>
+      <c r="KN6" s="1">
+        <v>300</v>
+      </c>
+      <c r="KO6" s="1">
+        <v>301</v>
+      </c>
+      <c r="KP6" s="1">
+        <v>302</v>
+      </c>
+      <c r="KQ6" s="4">
+        <v>303</v>
+      </c>
+      <c r="KR6" s="1">
+        <v>304</v>
+      </c>
+      <c r="KS6" s="1">
+        <v>305</v>
+      </c>
+      <c r="KT6" s="1">
+        <v>306</v>
+      </c>
+      <c r="KU6" s="1">
+        <v>307</v>
+      </c>
+      <c r="KV6" s="1">
+        <v>308</v>
+      </c>
+      <c r="KW6" s="1">
+        <v>309</v>
+      </c>
+      <c r="KX6" s="4">
+        <v>310</v>
+      </c>
+      <c r="KY6" s="1">
+        <v>311</v>
+      </c>
+      <c r="KZ6" s="1">
+        <v>312</v>
+      </c>
+      <c r="LA6" s="1">
+        <v>313</v>
+      </c>
+      <c r="LB6" s="4">
+        <v>314</v>
+      </c>
+      <c r="LC6" s="1">
+        <v>315</v>
+      </c>
+      <c r="LD6" s="1">
+        <v>316</v>
+      </c>
+      <c r="LE6" s="1">
+        <v>317</v>
+      </c>
+      <c r="LF6" s="4">
+        <v>318</v>
+      </c>
+      <c r="LG6" s="1">
+        <v>319</v>
+      </c>
+      <c r="LH6" s="1">
+        <v>320</v>
+      </c>
+      <c r="LI6" s="1">
+        <v>321</v>
+      </c>
+      <c r="LJ6" s="4">
+        <v>322</v>
+      </c>
+      <c r="LK6" s="1">
+        <v>323</v>
+      </c>
+      <c r="LL6" s="1">
+        <v>324</v>
+      </c>
+      <c r="LM6" s="1">
+        <v>325</v>
+      </c>
+      <c r="LN6" s="4">
+        <v>326</v>
+      </c>
+      <c r="LO6" s="1">
+        <v>327</v>
+      </c>
+      <c r="LP6" s="1">
+        <v>328</v>
+      </c>
+      <c r="LQ6" s="1">
+        <v>329</v>
+      </c>
+      <c r="LR6" s="4">
+        <v>330</v>
+      </c>
+      <c r="LS6" s="1">
+        <v>331</v>
+      </c>
+      <c r="LT6" s="1">
+        <v>332</v>
+      </c>
+      <c r="LU6" s="1">
+        <v>333</v>
+      </c>
+      <c r="LV6" s="1">
+        <v>334</v>
+      </c>
+      <c r="LW6" s="1">
+        <v>335</v>
+      </c>
+      <c r="LX6" s="1">
+        <v>336</v>
+      </c>
+      <c r="LY6" s="1">
+        <v>337</v>
+      </c>
+      <c r="LZ6" s="1">
+        <v>338</v>
+      </c>
+      <c r="MA6" s="1">
+        <v>339</v>
+      </c>
+      <c r="MB6" s="4">
+        <v>340</v>
+      </c>
+      <c r="MC6" s="1">
+        <v>341</v>
+      </c>
+      <c r="MD6" s="1">
+        <v>342</v>
+      </c>
+      <c r="ME6" s="1">
+        <v>343</v>
+      </c>
+      <c r="MF6" s="4">
+        <v>344</v>
+      </c>
+      <c r="MG6" s="1">
+        <v>345</v>
+      </c>
+      <c r="MH6" s="1">
+        <v>346</v>
+      </c>
+      <c r="MI6" s="1">
+        <v>347</v>
+      </c>
+      <c r="MJ6" s="4">
+        <v>348</v>
+      </c>
+      <c r="MK6" s="1">
+        <v>349</v>
+      </c>
+      <c r="ML6" s="1">
+        <v>350</v>
+      </c>
+      <c r="MM6" s="1">
+        <v>351</v>
+      </c>
+      <c r="MN6" s="4">
+        <v>352</v>
+      </c>
+      <c r="MO6" s="1">
+        <v>353</v>
+      </c>
+      <c r="MP6" s="1">
+        <v>354</v>
+      </c>
+      <c r="MQ6" s="1">
+        <v>355</v>
+      </c>
+      <c r="MR6" s="4">
+        <v>356</v>
+      </c>
+      <c r="MS6" s="1">
+        <v>357</v>
+      </c>
+      <c r="MT6" s="1">
+        <v>358</v>
+      </c>
+      <c r="MU6" s="1">
+        <v>359</v>
+      </c>
+      <c r="MV6" s="4">
+        <v>360</v>
+      </c>
+      <c r="MW6" s="1">
+        <v>361</v>
+      </c>
+      <c r="MX6" s="1">
+        <v>362</v>
+      </c>
+      <c r="MY6" s="1">
+        <v>363</v>
+      </c>
+      <c r="MZ6" s="1">
+        <v>364</v>
+      </c>
+      <c r="NA6" s="1">
+        <v>365</v>
+      </c>
+      <c r="NB6" s="1">
+        <v>366</v>
+      </c>
+      <c r="NC6" s="4">
+        <v>367</v>
+      </c>
+      <c r="ND6" s="1">
+        <v>368</v>
+      </c>
+      <c r="NE6" s="1">
+        <v>369</v>
+      </c>
+      <c r="NF6" s="1">
+        <v>370</v>
+      </c>
+      <c r="NG6" s="4">
+        <v>371</v>
+      </c>
+      <c r="NH6" s="1">
+        <v>372</v>
+      </c>
+      <c r="NI6" s="1">
+        <v>373</v>
+      </c>
+      <c r="NJ6" s="1">
+        <v>374</v>
+      </c>
+      <c r="NK6" s="4">
+        <v>375</v>
+      </c>
+      <c r="NL6" s="1">
+        <v>376</v>
+      </c>
+      <c r="NM6" s="1">
+        <v>377</v>
+      </c>
+      <c r="NN6" s="1">
+        <v>378</v>
+      </c>
+      <c r="NO6" s="4">
+        <v>379</v>
+      </c>
+      <c r="NP6" s="1">
+        <v>380</v>
+      </c>
+      <c r="NQ6" s="1">
+        <v>381</v>
+      </c>
+      <c r="NR6" s="1">
+        <v>382</v>
+      </c>
+      <c r="NS6" s="4">
+        <v>383</v>
+      </c>
+      <c r="NT6" s="1">
+        <v>384</v>
+      </c>
+      <c r="NU6" s="1">
+        <v>385</v>
+      </c>
+      <c r="NV6" s="1">
+        <v>386</v>
+      </c>
+      <c r="NW6" s="4">
+        <v>387</v>
+      </c>
+      <c r="NX6" s="1">
+        <v>388</v>
+      </c>
+      <c r="NY6" s="1">
+        <v>389</v>
+      </c>
+      <c r="NZ6" s="1">
+        <v>390</v>
+      </c>
+      <c r="OA6" s="1">
+        <v>391</v>
+      </c>
+      <c r="OB6" s="1">
+        <v>392</v>
+      </c>
+      <c r="OC6" s="1">
+        <v>393</v>
+      </c>
+      <c r="OD6" s="4">
+        <v>394</v>
+      </c>
+      <c r="OE6" s="1">
+        <v>395</v>
+      </c>
+      <c r="OF6" s="1">
+        <v>396</v>
+      </c>
+      <c r="OG6" s="1">
+        <v>397</v>
+      </c>
+      <c r="OH6" s="4">
+        <v>398</v>
+      </c>
+      <c r="OI6" s="1">
+        <v>399</v>
+      </c>
+      <c r="OJ6" s="1">
+        <v>400</v>
+      </c>
+      <c r="OK6" s="1">
+        <v>401</v>
+      </c>
+      <c r="OL6" s="4">
+        <v>402</v>
+      </c>
+      <c r="OM6" s="1">
+        <v>403</v>
+      </c>
+      <c r="ON6" s="1">
+        <v>404</v>
+      </c>
+      <c r="OO6" s="1">
+        <v>405</v>
+      </c>
+      <c r="OP6" s="4">
+        <v>406</v>
+      </c>
+      <c r="OQ6" s="1">
+        <v>407</v>
+      </c>
+      <c r="OR6" s="1">
+        <v>408</v>
+      </c>
+      <c r="OS6" s="1">
+        <v>409</v>
+      </c>
+      <c r="OT6" s="4">
+        <v>410</v>
+      </c>
+      <c r="OU6" s="1">
+        <v>411</v>
+      </c>
+      <c r="OV6" s="1">
+        <v>412</v>
+      </c>
+      <c r="OW6" s="1">
+        <v>413</v>
+      </c>
+      <c r="OX6" s="4">
+        <v>414</v>
+      </c>
+      <c r="OY6" s="1">
+        <v>415</v>
+      </c>
+      <c r="OZ6" s="1">
+        <v>416</v>
+      </c>
+      <c r="PA6" s="1">
+        <v>417</v>
+      </c>
+      <c r="PB6" s="1">
+        <v>418</v>
+      </c>
+      <c r="PC6" s="1">
+        <v>419</v>
+      </c>
+      <c r="PD6" s="1">
+        <v>420</v>
+      </c>
+      <c r="PE6" s="1">
+        <v>421</v>
+      </c>
+      <c r="PF6" s="1">
+        <v>422</v>
+      </c>
+      <c r="PG6" s="1">
+        <v>423</v>
+      </c>
+      <c r="PH6" s="4">
+        <v>424</v>
+      </c>
+      <c r="PI6" s="1">
+        <v>425</v>
+      </c>
+      <c r="PJ6" s="1">
+        <v>426</v>
+      </c>
+      <c r="PK6" s="1">
+        <v>427</v>
+      </c>
+      <c r="PL6" s="4">
+        <v>428</v>
+      </c>
+      <c r="PM6" s="1">
+        <v>429</v>
+      </c>
+      <c r="PN6" s="1">
+        <v>430</v>
+      </c>
+      <c r="PO6" s="1">
+        <v>431</v>
+      </c>
+      <c r="PP6" s="4">
+        <v>432</v>
+      </c>
+      <c r="PQ6" s="1">
+        <v>433</v>
+      </c>
+      <c r="PR6" s="1">
+        <v>434</v>
+      </c>
+      <c r="PS6" s="1">
+        <v>435</v>
+      </c>
+      <c r="PT6" s="4">
+        <v>436</v>
+      </c>
+      <c r="PU6" s="1">
+        <v>437</v>
+      </c>
+      <c r="PV6" s="1">
+        <v>438</v>
+      </c>
+      <c r="PW6" s="1">
+        <v>439</v>
+      </c>
+      <c r="PX6" s="4">
+        <v>440</v>
+      </c>
+      <c r="PY6" s="1">
+        <v>441</v>
+      </c>
+      <c r="PZ6" s="1">
+        <v>442</v>
+      </c>
+      <c r="QA6" s="1">
+        <v>443</v>
+      </c>
+      <c r="QB6" s="4">
+        <v>444</v>
+      </c>
+      <c r="QC6" s="1">
+        <v>445</v>
+      </c>
+      <c r="QD6" s="1">
+        <v>446</v>
+      </c>
+      <c r="QE6" s="1">
+        <v>447</v>
+      </c>
+      <c r="QF6" s="1">
+        <v>448</v>
+      </c>
+      <c r="QG6" s="1">
+        <v>449</v>
+      </c>
+      <c r="QH6" s="1">
+        <v>450</v>
+      </c>
+      <c r="QI6" s="4">
+        <v>451</v>
+      </c>
+      <c r="QJ6" s="1">
+        <v>452</v>
+      </c>
+      <c r="QK6" s="1">
+        <v>453</v>
+      </c>
+      <c r="QL6" s="1">
+        <v>454</v>
+      </c>
+      <c r="QM6" s="4">
+        <v>455</v>
+      </c>
+      <c r="QN6" s="1">
+        <v>456</v>
+      </c>
+      <c r="QO6" s="1">
+        <v>457</v>
+      </c>
+      <c r="QP6" s="1">
+        <v>458</v>
+      </c>
+      <c r="QQ6" s="4">
+        <v>459</v>
+      </c>
+      <c r="QR6" s="1">
+        <v>460</v>
+      </c>
+      <c r="QS6" s="1">
+        <v>461</v>
+      </c>
+      <c r="QT6" s="1">
+        <v>462</v>
+      </c>
+      <c r="QU6" s="4">
+        <v>463</v>
+      </c>
+      <c r="QV6" s="1">
+        <v>464</v>
+      </c>
+      <c r="QW6" s="1">
+        <v>465</v>
+      </c>
+      <c r="QX6" s="1">
+        <v>466</v>
+      </c>
+      <c r="QY6" s="4">
+        <v>467</v>
+      </c>
+      <c r="QZ6" s="1">
+        <v>468</v>
+      </c>
+      <c r="RA6" s="1">
+        <v>469</v>
+      </c>
+      <c r="RB6" s="1">
+        <v>470</v>
+      </c>
+      <c r="RC6" s="4">
+        <v>471</v>
+      </c>
+      <c r="RD6" s="1">
+        <v>472</v>
+      </c>
+      <c r="RE6" s="1">
+        <v>473</v>
+      </c>
+      <c r="RF6" s="1">
+        <v>474</v>
+      </c>
+      <c r="RG6" s="1">
+        <v>475</v>
+      </c>
+      <c r="RH6" s="1">
+        <v>476</v>
+      </c>
+      <c r="RI6" s="1">
+        <v>477</v>
+      </c>
+      <c r="RJ6" s="4">
+        <v>478</v>
+      </c>
+      <c r="RK6" s="1">
+        <v>479</v>
+      </c>
+      <c r="RL6" s="1">
+        <v>480</v>
+      </c>
+      <c r="RM6" s="1">
+        <v>481</v>
+      </c>
+      <c r="RN6" s="4">
+        <v>482</v>
+      </c>
+      <c r="RO6" s="1">
+        <v>483</v>
+      </c>
+      <c r="RP6" s="1">
+        <v>484</v>
+      </c>
+      <c r="RQ6" s="1">
+        <v>485</v>
+      </c>
+      <c r="RR6" s="4">
+        <v>486</v>
+      </c>
+      <c r="RS6" s="1">
+        <v>487</v>
+      </c>
+      <c r="RT6" s="1">
+        <v>488</v>
+      </c>
+      <c r="RU6" s="1">
+        <v>489</v>
+      </c>
+      <c r="RV6" s="4">
+        <v>490</v>
+      </c>
+      <c r="RW6" s="1">
+        <v>491</v>
+      </c>
+      <c r="RX6" s="1">
+        <v>492</v>
+      </c>
+      <c r="RY6" s="1">
+        <v>493</v>
+      </c>
+      <c r="RZ6" s="4">
+        <v>494</v>
+      </c>
+      <c r="SA6" s="1">
+        <v>495</v>
+      </c>
+      <c r="SB6" s="1">
+        <v>496</v>
+      </c>
+      <c r="SC6" s="1">
+        <v>497</v>
+      </c>
+      <c r="SD6" s="4">
+        <v>498</v>
+      </c>
+      <c r="SE6" s="1">
+        <v>499</v>
+      </c>
+      <c r="SF6" s="1">
+        <v>500</v>
+      </c>
+      <c r="SG6" s="1">
+        <v>501</v>
+      </c>
+      <c r="SH6" s="1">
+        <v>502</v>
+      </c>
+      <c r="SI6" s="1">
+        <v>503</v>
+      </c>
+      <c r="SJ6" s="1">
+        <v>504</v>
+      </c>
+      <c r="SK6" s="1">
+        <v>505</v>
+      </c>
+      <c r="SL6" s="1">
+        <v>506</v>
+      </c>
+      <c r="SM6" s="1">
+        <v>507</v>
+      </c>
+      <c r="SN6" s="4">
+        <v>508</v>
+      </c>
+      <c r="SO6" s="1">
+        <v>509</v>
+      </c>
+      <c r="SP6" s="1">
+        <v>510</v>
+      </c>
+      <c r="SQ6" s="1">
+        <v>511</v>
+      </c>
+      <c r="SR6" s="4">
+        <v>512</v>
+      </c>
+      <c r="SS6" s="1">
+        <v>513</v>
+      </c>
+      <c r="ST6" s="1">
+        <v>514</v>
+      </c>
+      <c r="SU6" s="1">
+        <v>515</v>
+      </c>
+      <c r="SV6" s="4">
+        <v>516</v>
+      </c>
+      <c r="SW6" s="1">
+        <v>517</v>
+      </c>
+      <c r="SX6" s="1">
+        <v>518</v>
+      </c>
+      <c r="SY6" s="1">
+        <v>519</v>
+      </c>
+      <c r="SZ6" s="4">
+        <v>520</v>
+      </c>
+      <c r="TA6" s="1">
+        <v>521</v>
+      </c>
+      <c r="TB6" s="1">
+        <v>522</v>
+      </c>
+      <c r="TC6" s="1">
+        <v>523</v>
+      </c>
+      <c r="TD6" s="4">
+        <v>524</v>
+      </c>
+      <c r="TE6" s="1">
+        <v>525</v>
+      </c>
+      <c r="TF6" s="1">
+        <v>526</v>
+      </c>
+      <c r="TG6" s="1">
+        <v>527</v>
+      </c>
+      <c r="TH6" s="4">
+        <v>528</v>
+      </c>
+      <c r="TI6" s="1">
+        <v>529</v>
+      </c>
+      <c r="TJ6" s="1">
+        <v>530</v>
+      </c>
+      <c r="TK6" s="1">
+        <v>531</v>
+      </c>
+      <c r="TL6" s="1">
+        <v>532</v>
+      </c>
+      <c r="TM6" s="1">
+        <v>533</v>
+      </c>
+      <c r="TN6" s="1">
+        <v>534</v>
+      </c>
+      <c r="TO6" s="4">
+        <v>535</v>
+      </c>
+      <c r="TP6" s="1">
+        <v>536</v>
+      </c>
+      <c r="TQ6" s="1">
+        <v>537</v>
+      </c>
+      <c r="TR6" s="1">
+        <v>538</v>
+      </c>
+      <c r="TS6" s="4">
+        <v>539</v>
+      </c>
+      <c r="TT6" s="1">
+        <v>540</v>
+      </c>
+      <c r="TU6" s="1">
+        <v>541</v>
+      </c>
+      <c r="TV6" s="1">
+        <v>542</v>
+      </c>
+      <c r="TW6" s="4">
+        <v>543</v>
+      </c>
+      <c r="TX6" s="1">
+        <v>544</v>
+      </c>
+      <c r="TY6" s="1">
+        <v>545</v>
+      </c>
+      <c r="TZ6" s="1">
+        <v>546</v>
+      </c>
+      <c r="UA6" s="4">
+        <v>547</v>
+      </c>
+      <c r="UB6" s="1">
+        <v>548</v>
+      </c>
+      <c r="UC6" s="1">
+        <v>549</v>
+      </c>
+      <c r="UD6" s="1">
+        <v>550</v>
+      </c>
+      <c r="UE6" s="4">
+        <v>551</v>
+      </c>
+      <c r="UF6" s="1">
+        <v>552</v>
+      </c>
+      <c r="UG6" s="1">
+        <v>553</v>
+      </c>
+      <c r="UH6" s="1">
+        <v>554</v>
+      </c>
+      <c r="UI6" s="4">
+        <v>555</v>
+      </c>
+      <c r="UJ6" s="1">
+        <v>556</v>
+      </c>
+      <c r="UK6" s="1">
+        <v>557</v>
+      </c>
+      <c r="UL6" s="1">
+        <v>558</v>
+      </c>
+      <c r="UM6" s="1">
+        <v>559</v>
+      </c>
+      <c r="UN6" s="1">
+        <v>560</v>
+      </c>
+      <c r="UO6" s="1">
+        <v>561</v>
+      </c>
+      <c r="UP6" s="4">
+        <v>562</v>
+      </c>
+      <c r="UQ6" s="1">
+        <v>563</v>
+      </c>
+      <c r="UR6" s="1">
+        <v>564</v>
+      </c>
+      <c r="US6" s="1">
+        <v>565</v>
+      </c>
+      <c r="UT6" s="4">
+        <v>566</v>
+      </c>
+      <c r="UU6" s="1">
+        <v>567</v>
+      </c>
+      <c r="UV6" s="1">
+        <v>568</v>
+      </c>
+      <c r="UW6" s="1">
+        <v>569</v>
+      </c>
+      <c r="UX6" s="4">
+        <v>570</v>
+      </c>
+      <c r="UY6" s="1">
+        <v>571</v>
+      </c>
+      <c r="UZ6" s="1">
+        <v>572</v>
+      </c>
+      <c r="VA6" s="1">
+        <v>573</v>
+      </c>
+      <c r="VB6" s="4">
+        <v>574</v>
+      </c>
+      <c r="VC6" s="1">
+        <v>575</v>
+      </c>
+      <c r="VD6" s="1">
+        <v>576</v>
+      </c>
+      <c r="VE6" s="1">
+        <v>577</v>
+      </c>
+      <c r="VF6" s="4">
+        <v>578</v>
+      </c>
+      <c r="VG6" s="1">
+        <v>579</v>
+      </c>
+      <c r="VH6" s="1">
+        <v>580</v>
+      </c>
+      <c r="VI6" s="1">
+        <v>581</v>
+      </c>
+      <c r="VJ6" s="4">
+        <v>582</v>
+      </c>
+      <c r="VK6" s="1">
+        <v>583</v>
+      </c>
+      <c r="VL6" s="1">
+        <v>584</v>
+      </c>
+      <c r="VM6" s="1">
+        <v>585</v>
+      </c>
+      <c r="VN6" s="1">
+        <v>586</v>
+      </c>
+      <c r="VO6" s="1">
+        <v>587</v>
+      </c>
+      <c r="VP6" s="1">
+        <v>588</v>
+      </c>
+      <c r="VQ6" s="1">
+        <v>589</v>
+      </c>
+      <c r="VR6" s="1">
+        <v>590</v>
+      </c>
+      <c r="VS6" s="1">
+        <v>591</v>
+      </c>
+      <c r="VT6" s="4">
+        <v>592</v>
+      </c>
+      <c r="VU6" s="1">
+        <v>593</v>
+      </c>
+      <c r="VV6" s="1">
+        <v>594</v>
+      </c>
+      <c r="VW6" s="1">
+        <v>595</v>
+      </c>
+      <c r="VX6" s="4">
+        <v>596</v>
+      </c>
+      <c r="VY6" s="1">
+        <v>597</v>
+      </c>
+      <c r="VZ6" s="1">
+        <v>598</v>
+      </c>
+      <c r="WA6" s="1">
+        <v>599</v>
+      </c>
+      <c r="WB6" s="4">
+        <v>600</v>
+      </c>
+      <c r="WC6" s="1">
+        <v>601</v>
+      </c>
+      <c r="WD6" s="1">
+        <v>602</v>
+      </c>
+      <c r="WE6" s="1">
+        <v>603</v>
+      </c>
+      <c r="WF6" s="4">
+        <v>604</v>
+      </c>
+      <c r="WG6" s="1">
+        <v>605</v>
+      </c>
+      <c r="WH6" s="1">
+        <v>606</v>
+      </c>
+      <c r="WI6" s="1">
+        <v>607</v>
+      </c>
+      <c r="WJ6" s="4">
+        <v>608</v>
+      </c>
+      <c r="WK6" s="1">
+        <v>609</v>
+      </c>
+      <c r="WL6" s="1">
+        <v>610</v>
+      </c>
+      <c r="WM6" s="1">
+        <v>611</v>
+      </c>
+      <c r="WN6" s="4">
+        <v>612</v>
+      </c>
+      <c r="WO6" s="1">
+        <v>613</v>
+      </c>
+      <c r="WP6" s="1">
+        <v>614</v>
+      </c>
+      <c r="WQ6" s="1">
+        <v>615</v>
+      </c>
+      <c r="WR6" s="1">
+        <v>616</v>
+      </c>
+      <c r="WS6" s="1">
+        <v>617</v>
+      </c>
+      <c r="WT6" s="1">
+        <v>618</v>
+      </c>
+      <c r="WU6" s="4">
+        <v>619</v>
+      </c>
+      <c r="WV6" s="1">
+        <v>620</v>
+      </c>
+      <c r="WW6" s="1">
+        <v>621</v>
+      </c>
+      <c r="WX6" s="1">
+        <v>622</v>
+      </c>
+      <c r="WY6" s="4">
+        <v>623</v>
+      </c>
+      <c r="WZ6" s="1">
+        <v>624</v>
+      </c>
+      <c r="XA6" s="1">
+        <v>625</v>
+      </c>
+      <c r="XB6" s="1">
+        <v>626</v>
+      </c>
+      <c r="XC6" s="4">
+        <v>627</v>
+      </c>
+      <c r="XD6" s="1">
+        <v>628</v>
+      </c>
+      <c r="XE6" s="1">
+        <v>629</v>
+      </c>
+      <c r="XF6" s="1">
+        <v>630</v>
+      </c>
+      <c r="XG6" s="4">
+        <v>631</v>
+      </c>
+      <c r="XH6" s="1">
+        <v>632</v>
+      </c>
+      <c r="XI6" s="1">
+        <v>633</v>
+      </c>
+      <c r="XJ6" s="1">
+        <v>634</v>
+      </c>
+      <c r="XK6" s="4">
+        <v>635</v>
+      </c>
+      <c r="XL6" s="1">
+        <v>636</v>
+      </c>
+      <c r="XM6" s="1">
+        <v>637</v>
+      </c>
+      <c r="XN6" s="1">
+        <v>638</v>
+      </c>
+      <c r="XO6" s="4">
+        <v>639</v>
+      </c>
+      <c r="XP6" s="1">
+        <v>640</v>
+      </c>
+      <c r="XQ6" s="1">
+        <v>641</v>
+      </c>
+      <c r="XR6" s="1">
+        <v>642</v>
+      </c>
+      <c r="XS6" s="1">
+        <v>643</v>
+      </c>
+      <c r="XT6" s="1">
+        <v>644</v>
+      </c>
+      <c r="XU6" s="1">
+        <v>645</v>
+      </c>
+      <c r="XV6" s="4">
+        <v>646</v>
+      </c>
+      <c r="XW6" s="1">
+        <v>647</v>
+      </c>
+      <c r="XX6" s="1">
+        <v>648</v>
+      </c>
+      <c r="XY6" s="1">
+        <v>649</v>
+      </c>
+      <c r="XZ6" s="4">
+        <v>650</v>
+      </c>
+      <c r="YA6" s="1">
+        <v>651</v>
+      </c>
+      <c r="YB6" s="1">
+        <v>652</v>
+      </c>
+      <c r="YC6" s="1">
+        <v>653</v>
+      </c>
+      <c r="YD6" s="4">
+        <v>654</v>
+      </c>
+      <c r="YE6" s="1">
+        <v>655</v>
+      </c>
+      <c r="YF6" s="1">
+        <v>656</v>
+      </c>
+      <c r="YG6" s="1">
+        <v>657</v>
+      </c>
+      <c r="YH6" s="4">
+        <v>658</v>
+      </c>
+      <c r="YI6" s="1">
+        <v>659</v>
+      </c>
+      <c r="YJ6" s="1">
+        <v>660</v>
+      </c>
+      <c r="YK6" s="1">
+        <v>661</v>
+      </c>
+      <c r="YL6" s="4">
+        <v>662</v>
+      </c>
+      <c r="YM6" s="1">
+        <v>663</v>
+      </c>
+      <c r="YN6" s="1">
+        <v>664</v>
+      </c>
+      <c r="YO6" s="1">
+        <v>665</v>
+      </c>
+      <c r="YP6" s="4">
+        <v>666</v>
+      </c>
+      <c r="YQ6" s="1">
+        <v>667</v>
+      </c>
+      <c r="YR6" s="1">
+        <v>668</v>
+      </c>
+      <c r="YS6" s="1">
+        <v>669</v>
+      </c>
+      <c r="YT6" s="1">
+        <v>670</v>
+      </c>
+      <c r="YU6" s="1">
+        <v>671</v>
+      </c>
+      <c r="YV6" s="1">
+        <v>672</v>
+      </c>
+      <c r="YW6" s="1">
+        <v>673</v>
+      </c>
+      <c r="YX6" s="1">
+        <v>674</v>
+      </c>
+      <c r="YY6" s="1">
+        <v>675</v>
+      </c>
+      <c r="YZ6" s="4">
+        <v>676</v>
+      </c>
+      <c r="ZA6" s="1">
+        <v>677</v>
+      </c>
+      <c r="ZB6" s="1">
+        <v>678</v>
+      </c>
+      <c r="ZC6" s="1">
+        <v>679</v>
+      </c>
+      <c r="ZD6" s="4">
+        <v>680</v>
+      </c>
+      <c r="ZE6" s="1">
+        <v>681</v>
+      </c>
+      <c r="ZF6" s="1">
+        <v>682</v>
+      </c>
+      <c r="ZG6" s="1">
+        <v>683</v>
+      </c>
+      <c r="ZH6" s="4">
+        <v>684</v>
+      </c>
+      <c r="ZI6" s="1">
+        <v>685</v>
+      </c>
+      <c r="ZJ6" s="1">
+        <v>686</v>
+      </c>
+      <c r="ZK6" s="1">
+        <v>687</v>
+      </c>
+      <c r="ZL6" s="4">
+        <v>688</v>
+      </c>
+      <c r="ZM6" s="1">
+        <v>689</v>
+      </c>
+      <c r="ZN6" s="1">
+        <v>690</v>
+      </c>
+      <c r="ZO6" s="1">
+        <v>691</v>
+      </c>
+      <c r="ZP6" s="4">
+        <v>692</v>
+      </c>
+      <c r="ZQ6" s="1">
+        <v>693</v>
+      </c>
+      <c r="ZR6" s="1">
+        <v>694</v>
+      </c>
+      <c r="ZS6" s="1">
+        <v>695</v>
+      </c>
+      <c r="ZT6" s="4">
+        <v>696</v>
+      </c>
+      <c r="ZU6" s="1">
+        <v>697</v>
+      </c>
+      <c r="ZV6" s="1">
+        <v>698</v>
+      </c>
+      <c r="ZW6" s="1">
+        <v>699</v>
+      </c>
+      <c r="ZX6" s="1">
+        <v>700</v>
+      </c>
+      <c r="ZY6" s="1">
+        <v>701</v>
+      </c>
+      <c r="ZZ6" s="1">
+        <v>702</v>
+      </c>
+      <c r="AAA6" s="4">
+        <v>703</v>
+      </c>
+      <c r="AAB6" s="1">
+        <v>704</v>
+      </c>
+      <c r="AAC6" s="1">
+        <v>705</v>
+      </c>
+      <c r="AAD6" s="1">
+        <v>706</v>
+      </c>
+      <c r="AAE6" s="4">
+        <v>707</v>
+      </c>
+      <c r="AAF6" s="1">
+        <v>708</v>
+      </c>
+      <c r="AAG6" s="1">
+        <v>709</v>
+      </c>
+      <c r="AAH6" s="1">
+        <v>710</v>
+      </c>
+      <c r="AAI6" s="4">
+        <v>711</v>
+      </c>
+      <c r="AAJ6" s="1">
+        <v>712</v>
+      </c>
+      <c r="AAK6" s="1">
+        <v>713</v>
+      </c>
+      <c r="AAL6" s="1">
+        <v>714</v>
+      </c>
+      <c r="AAM6" s="1">
+        <v>715</v>
+      </c>
+      <c r="AAN6" s="1">
+        <v>716</v>
+      </c>
+      <c r="AAO6" s="1">
+        <v>717</v>
+      </c>
+      <c r="AAP6" s="1">
+        <v>718</v>
+      </c>
+      <c r="AAQ6" s="1">
+        <v>719</v>
+      </c>
+      <c r="AAR6" s="1">
+        <v>720</v>
+      </c>
+      <c r="AAS6" s="1">
+        <v>721</v>
+      </c>
+      <c r="AAT6" s="1">
+        <v>722</v>
+      </c>
+      <c r="AAU6" s="1">
+        <v>723</v>
+      </c>
+      <c r="AAV6" s="1">
+        <v>724</v>
+      </c>
+      <c r="AAW6" s="1">
+        <v>725</v>
+      </c>
+      <c r="AAX6" s="1">
+        <v>726</v>
+      </c>
+      <c r="AAY6" s="1">
+        <v>727</v>
+      </c>
+      <c r="AAZ6" s="1">
+        <v>728</v>
+      </c>
+      <c r="ABA6" s="4">
+        <v>729</v>
+      </c>
+      <c r="ABB6" s="1">
+        <v>730</v>
+      </c>
+      <c r="ABC6" s="1">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
